--- a/xls/VUT-Fakulta strojního inženýrství_All.xlsx
+++ b/xls/VUT-Fakulta strojního inženýrství_All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jimp</t>
